--- a/Wheat 2021/wheat metadata.xlsx
+++ b/Wheat 2021/wheat metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentp\Documents\GitHub\Rhizosphere-sequencing\Wheat 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Rhizosphere-sequencing\Wheat 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8E4B8-60E6-4E13-BB5C-8CECECCB36CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9346A58E-027D-48D8-8211-8A19084BF9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
   <si>
     <t>group</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>combined</t>
+  </si>
+  <si>
+    <t>Cov 1</t>
+  </si>
+  <si>
+    <t>Hemp Fiber 1</t>
+  </si>
+  <si>
+    <t>Cov 2</t>
+  </si>
+  <si>
+    <t>Hemp Grain 1</t>
+  </si>
+  <si>
+    <t>Hemp Fiber 2</t>
+  </si>
+  <si>
+    <t>Hemp Grain 2</t>
   </si>
 </sst>
 </file>
@@ -557,16 +575,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,12 +598,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -594,12 +612,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -608,12 +626,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -622,12 +640,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -636,12 +654,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -650,12 +668,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="B7" t="s">
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -664,12 +682,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" t="s">
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -678,12 +696,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>5</v>
+      <c r="B9" t="s">
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -692,12 +710,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>4</v>
+      <c r="B10" t="s">
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -706,12 +724,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>6</v>
+      <c r="B11" t="s">
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -720,12 +738,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>6</v>
+      <c r="B12" t="s">
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -734,12 +752,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>2</v>
+      <c r="B13" t="s">
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -748,12 +766,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -762,12 +780,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>3</v>
+      <c r="B15" t="s">
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -776,12 +794,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>4</v>
+      <c r="B16" t="s">
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -790,12 +808,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>5</v>
+      <c r="B17" t="s">
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -804,12 +822,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>3</v>
+      <c r="B18" t="s">
+        <v>71</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -818,12 +836,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -832,12 +850,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>6</v>
+      <c r="B20" t="s">
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -846,12 +864,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2</v>
+      <c r="B21" t="s">
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -860,12 +878,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>5</v>
+      <c r="B22" t="s">
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -874,12 +892,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>5</v>
+      <c r="B23" t="s">
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -888,12 +906,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -902,12 +920,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>3</v>
+      <c r="B25" t="s">
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -916,12 +934,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>6</v>
+      <c r="B26" t="s">
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -930,12 +948,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>2</v>
+      <c r="B27" t="s">
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -944,12 +962,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28">
-        <v>5</v>
+      <c r="B28" t="s">
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -958,12 +976,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29">
-        <v>6</v>
+      <c r="B29" t="s">
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -972,12 +990,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
-        <v>3</v>
+      <c r="B30" t="s">
+        <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -986,12 +1004,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="s">
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -1000,12 +1018,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32">
-        <v>4</v>
+      <c r="B32" t="s">
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -1014,12 +1032,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B33">
-        <v>1</v>
+      <c r="B33" t="s">
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -1028,12 +1046,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B34">
-        <v>6</v>
+      <c r="B34" t="s">
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -1042,12 +1060,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="s">
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>67</v>
@@ -1056,12 +1074,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
-        <v>3</v>
+      <c r="B36" t="s">
+        <v>71</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
@@ -1070,12 +1088,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37">
-        <v>5</v>
+      <c r="B37" t="s">
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>67</v>
@@ -1084,12 +1102,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38">
-        <v>2</v>
+      <c r="B38" t="s">
+        <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>67</v>
@@ -1098,12 +1116,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>67</v>
@@ -1112,12 +1130,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B40">
-        <v>4</v>
+      <c r="B40" t="s">
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
@@ -1126,12 +1144,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B41">
-        <v>6</v>
+      <c r="B41" t="s">
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
@@ -1140,12 +1158,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B42">
-        <v>2</v>
+      <c r="B42" t="s">
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -1154,12 +1172,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43">
-        <v>3</v>
+      <c r="B43" t="s">
+        <v>71</v>
       </c>
       <c r="C43" t="s">
         <v>67</v>
@@ -1168,12 +1186,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B44">
-        <v>6</v>
+      <c r="B44" t="s">
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>67</v>
@@ -1182,12 +1200,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
-        <v>2</v>
+      <c r="B45" t="s">
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>67</v>
@@ -1196,12 +1214,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46">
-        <v>5</v>
+      <c r="B46" t="s">
+        <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
@@ -1210,12 +1228,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47">
-        <v>1</v>
+      <c r="B47" t="s">
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -1224,12 +1242,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48">
-        <v>4</v>
+      <c r="B48" t="s">
+        <v>72</v>
       </c>
       <c r="C48" t="s">
         <v>67</v>
@@ -1238,12 +1256,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49">
-        <v>3</v>
+      <c r="B49" t="s">
+        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>67</v>
@@ -1252,12 +1270,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="s">
+        <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -1266,12 +1284,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51">
-        <v>6</v>
+      <c r="B51" t="s">
+        <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>67</v>
@@ -1280,12 +1298,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
-      <c r="B52">
-        <v>5</v>
+      <c r="B52" t="s">
+        <v>73</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
